--- a/tales.xlsx
+++ b/tales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\projects\rarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48B5D6-E2D1-48CB-A5EA-658FA4AEDEEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D31C860-3F5C-45CE-BCB5-3A23E4B2982E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Колобок</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Русалочка</t>
   </si>
   <si>
-    <t>3 богатыря</t>
-  </si>
-  <si>
     <t>Белый парход</t>
   </si>
   <si>
@@ -67,16 +64,33 @@
   </si>
   <si>
     <t>Руслан и Людмила</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTAs6zl4yJMU7kRSahlbWjWWXhuySo0MvQmWg&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>33 богатыря</t>
+  </si>
+  <si>
+    <t>https://reedcafe.ru/sites/default/files/inline/images/bel-parohod-analiz.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +113,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,71 +413,80 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{8622D4BB-75A1-4C37-B0C0-44D18C0FADAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tales.xlsx
+++ b/tales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\projects\rarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D31C860-3F5C-45CE-BCB5-3A23E4B2982E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A90B0-1675-48BB-9A4F-A15522F00B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,79 +413,79 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{8622D4BB-75A1-4C37-B0C0-44D18C0FADAE}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8622D4BB-75A1-4C37-B0C0-44D18C0FADAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
